--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citiz\Documents\Electronique - Projets\Piscine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Divers\Projets personnels\Poolmaster\ESP32-PoolMaster-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDB114-4F06-4722-B6E8-E5C9717C8AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D655FD-68F1-4DDA-BA13-E89F87CA82A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="2910" windowWidth="21600" windowHeight="14310" activeTab="1" xr2:uid="{D53AEB94-9102-43E8-A489-0E19C8CADC5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{D53AEB94-9102-43E8-A489-0E19C8CADC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Objet</t>
   </si>
@@ -186,120 +178,27 @@
     <t>1 Alimentation MeanWell 12V HDR-30</t>
   </si>
   <si>
-    <t>https://fr.aliexpress.com/item/32851667666.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000512714343.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000195262654.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000126680453.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000505427059.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32849730395.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32649659086.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32817162654.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4001283141906.html?spm=a2g0s.9042311.0.0.221a6c37pnW82C</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32531438467.html?spm=a2g0s.9042311.0.0.1ec66c37Lne6Zz</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000127982680.html?spm=a2g0s.9042311.0.0.1ec66c37Lne6Zz</t>
-  </si>
-  <si>
-    <t>https://www.banggood.com/fr/Nextion-Enhanced-NX4832K035-3_5-Inch-HMI-Intelligent-Smart-USART-UART-Serial-Touch-Screen-TFT-LCD-Module-p-1188732.html?rmmds=myorder&amp;cur_warehouse=UK</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/regulation-chloreph/119-collier-de-prise-en-charge-50mm.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/regulation-chloreph/149-pompe-doseuse-peristaltique-avec-reglage-de-debit-15lh.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/accessoires-dosage/105-solution-etalon-pour-calibration-chlore-650-mv.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/accessoires-dosage/106-solution-etalon-pour-calibration-chlore-468-mv.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/accessoires-dosage/107-solution-etalon-pour-calibration-ph-7.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/accessoires-dosage/108-solution-etalon-pour-calibration-ph-4.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/regulation-chloreph/121-pool-terre-50mm.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/regulation-chloreph/77-sonde-ph-dosage-automatique-piscine.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/regulation-chloreph/78-sonde-ph-dosage-automatique-piscine.html</t>
-  </si>
-  <si>
-    <t>https://www.my-pool-covers.com/fr/home/81-chambre-d-analyse-pour-sonde-ph-ou-redox.html</t>
-  </si>
-  <si>
     <t>https://www.amazon.fr/gp/product/B07C7X9K5R/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t>ESP32-DevKitC-32E (V4)</t>
-  </si>
-  <si>
-    <t>Water pressure probe 500 kPa (5 bar)</t>
-  </si>
-  <si>
-    <t>Power supply 12V-2A Meanwell</t>
-  </si>
-  <si>
     <t>T 1/4" pipe connector</t>
   </si>
   <si>
     <t>DIN rail alu 2x25cm</t>
   </si>
   <si>
-    <t>5x2 PCB DIN supports</t>
-  </si>
-  <si>
-    <t>Active Buzzer  x3</t>
-  </si>
-  <si>
     <t>Bidirectionnal Level Shifter</t>
   </si>
   <si>
     <t>6x5V relays module</t>
   </si>
   <si>
-    <t>ADC 4 chanels 16bits</t>
-  </si>
-  <si>
-    <t>Converter DC-DC LM2596 x5</t>
-  </si>
-  <si>
     <t>Nextion display frame</t>
   </si>
   <si>
     <t>Display  Nextion Enhanced NX4832K035</t>
   </si>
   <si>
-    <t>Amplifier pH-ORP 1130 x2</t>
-  </si>
-  <si>
-    <t>Signal isolation module DFR0504 x2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microdos pH probe </t>
   </si>
   <si>
@@ -339,25 +238,145 @@
     <t>Size 0805</t>
   </si>
   <si>
-    <t>https://fr.aliexpress.com/item/4000927747306.html?spm=a2g0s.9042311.0.0.27426c37BAGaMu</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/4000895660165.html?spm=a2g0s.9042311.0.0.27426c37BAGaMu</t>
-  </si>
-  <si>
     <t>note: use small diameter header pins (PCB has small holes)</t>
   </si>
   <si>
-    <t>JST connectors</t>
-  </si>
-  <si>
-    <t>JST-1x3 M (2 mm pitch)</t>
-  </si>
-  <si>
     <t>LEDs 1206 5x100pc</t>
   </si>
   <si>
     <t>Air temperature probe - DS18B20 3m</t>
+  </si>
+  <si>
+    <t>water pressure sensor (0-5 bar)  G3/8</t>
+  </si>
+  <si>
+    <t>Power supply 12V-2A 30W Meanwell HDR-30-12</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006165104615.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005004270144334.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006593795657.html</t>
+  </si>
+  <si>
+    <t>Converter DC-DC MP1584 x5</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005005870392716.html</t>
+  </si>
+  <si>
+    <t>Connecteur HE10 10pin droit</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005005364262476.html</t>
+  </si>
+  <si>
+    <t>Borniers à vis 2EDG 5.08mm Right Angle</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005002464961832.html</t>
+  </si>
+  <si>
+    <t>5x2 PCB DIN supports  DRG-01 PCB</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006226938330.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005005316482964.html</t>
+  </si>
+  <si>
+    <t>ESP32-DevKitC-32E (V4) Type-C ESP-32 38PIN</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006345005109.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006431677780.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006864351047.html</t>
+  </si>
+  <si>
+    <t>ADC 4 chanels 16bits ADS1115</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32649659086.html</t>
+  </si>
+  <si>
+    <t>Active Buzzer</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006314040384.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32849730395.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32825642261.html</t>
+  </si>
+  <si>
+    <t>Carte PH ORP Gix</t>
+  </si>
+  <si>
+    <t>Carte poolmaster ESP 32</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006711674905.html</t>
+  </si>
+  <si>
+    <t>PCF8574AN</t>
+  </si>
+  <si>
+    <t>CAPA 100nf 0805</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005005690917856.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005001553239891.html?</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/sonde-ph-dosage-automatique-12435?category=328#attr=14030</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/sonde-redox-dosage-automatique-12436?category=328#attr=14032</t>
+  </si>
+  <si>
+    <t>https://www.bypiscine.com/traitement-piscine/accessoires-pompes-doseuses-regulateurs/double-chambre-analyse-piscine-pour-sondes-ph-redox</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-mp2-r1-5l-h-mp2-pompe-doseuse-peristaltique-15l-h-12440#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-00-042-901-solution-etalon-pour-calibration-ph-4-12463?page=2&amp;category=328#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-00-042-902-solution-etalon-pour-calibration-ph-7-12462?page=2&amp;category=328#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-00-042-965-solution-etalon-pour-calibration-chlore-650-mv-12459?page=2&amp;category=328#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-00-042-904-solution-etalon-pour-calibration-chlore-468-mv-12460?page=2&amp;category=328#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-00-063-805-pool-terre-pour-tuyaux-en-50mm-12469?category=328#attr=</t>
+  </si>
+  <si>
+    <t>https://www.my-pool-covers.com/shop/mpc-1003008-collier-de-prise-en-charge-50mm-avec-entree-filetee-1-2-12467?page=2&amp;category=328#attr=14050</t>
+  </si>
+  <si>
+    <t>JST-1x3 M (2 mm pitch) connectors PH2,0</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/33001807525.html</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/4000195262654.html</t>
   </si>
 </sst>
 </file>
@@ -391,12 +410,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -421,20 +446,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -452,6 +475,736 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F321BF92-A3EC-F854-F960-9F799F30410C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="219075"/>
+          <a:ext cx="723900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEAB8DC-AE48-3233-9558-62FB166589E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1695450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200215</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D6C36C-7D3E-0F23-5E94-1BF85F478E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1695450"/>
+          <a:ext cx="1200215" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1202580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B65DD12-2BEB-D03E-3E40-F7D2D9DC8695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2838451"/>
+          <a:ext cx="1202580" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1179111</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1028701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADA075A-809D-FFD3-20A6-D0641C83C0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5305426"/>
+          <a:ext cx="1179110" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AB5555-F5C5-0776-7B41-16A8AD472149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7143751"/>
+          <a:ext cx="895350" cy="813208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800291</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C53823-F57F-DBF4-60AE-CB7E17F708EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7905750"/>
+          <a:ext cx="800291" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>833809</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52605162-144B-9CB5-27B3-B9FF19F47981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2381250"/>
+          <a:ext cx="833809" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1198215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1767EB-7F39-5A88-C7F7-23A16373B119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7077075"/>
+          <a:ext cx="1198215" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200601</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AA33FE-C42C-A322-2CAB-67735F5D8968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5048250"/>
+          <a:ext cx="1200601" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1182847</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9204CC-19D1-71D7-C43A-9C4B8156060C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8372475"/>
+          <a:ext cx="1182847" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2631095-2170-A17E-8880-968EEEEDCC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8172451"/>
+          <a:ext cx="819150" cy="791144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1133633</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1114581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B99E2F-EB3A-D79E-9EB3-E33A4C5472B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6867525"/>
+          <a:ext cx="1133633" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962159</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>838317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06DF2CE-697B-D372-D579-D5B39C00D839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4600575"/>
+          <a:ext cx="962159" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBED3065-4C00-0C81-1ECA-AEE0510296D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10153650"/>
+          <a:ext cx="1000125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1223433</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690EFEA2-53CE-3F0C-172F-A6506749EA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14344651"/>
+          <a:ext cx="1223433" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,7 +1722,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1">
@@ -1152,16 +1905,16 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>6.68</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>13</v>
       </c>
     </row>
@@ -1169,10 +1922,10 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1269,393 +2022,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DCB02-DE9A-4389-8FAE-B9889A842E19}">
-  <dimension ref="A2:D32"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D6" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="6">
+        <f>2.6+1.36</f>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4">
-        <v>16.579999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4">
-        <f>4.98/3</f>
-        <v>1.6600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4">
-        <f>4/20</f>
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C25" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="D25" s="3">
+        <f>1.97*2</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="4">
-        <f>7.27/4</f>
-        <v>1.8174999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="4">
-        <f>20.27/2</f>
-        <v>10.135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3">
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.03</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="D28" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="4">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="4">
-        <v>30.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="4">
-        <v>66.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="4">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="4">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="C33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="3">
         <f>9.5*2</f>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3">
         <v>34.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4">
-        <f>2*88</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3">
         <v>41.45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="4">
-        <f>SUM(C2:C31)</f>
-        <v>772.98250000000007</v>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <f>SUM(D2:D36)</f>
+        <v>701.84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C19:C20"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{B9F69018-3678-4D3D-AAFA-399291FB0D9E}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{7B3979BF-E123-4A75-9A8A-4027C76E15B3}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{08D4B0D8-D36F-439A-BABF-CABC2558C13C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3EC7E4C7-2333-471E-B75C-F86D343FB306}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{E13AB687-BA0A-46FA-9A62-D8C9A946A27D}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{60DB8409-D508-4102-BE27-F26A9A5C3AA5}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{DE1DDCA1-E5B8-4965-BECF-FB3F0F001393}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{EC14BBAA-35CE-4BA4-8224-54E0E450CC86}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{65B2112F-8F0C-4B70-BAB0-88A9F48FFFEF}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{7AC8704D-CAD1-488F-ACEC-4FDED507AFE0}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{044D6319-E036-44D0-8F79-A6C99C32FA8C}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{DFF636A3-D6D1-4B9A-BB9B-D4DB9607652E}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{91125BD0-1813-4AB9-AF7E-41779BFD0F64}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{28B83EBE-DBA1-4D65-AC46-D29D95ACB5AA}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{70F44893-3223-429F-825D-D36FEA2E9FA0}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{043B254C-E342-4457-8A46-66307171023F}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{B804B7CE-6302-4722-B9D2-5011CC75013B}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{924F9270-3FAB-4C81-9A58-4A58A5E19FD1}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{0995AD02-1E3F-4D2F-8290-7CF157C95119}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{B8FF4129-7B4A-465D-8E05-00065B3B39E3}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{EC7EAF92-E037-482A-9D4C-266A1F17F049}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{77F018DB-2B1F-44CA-B36B-6F3065CE8786}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{62B9A582-2702-4550-91E4-8A2CB0FA6DF7}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{8722C4E8-5636-46F7-980F-682639B96655}"/>
-    <hyperlink ref="B31" r:id="rId25" xr:uid="{860306F7-7E9A-4D04-B556-367EF4249E7F}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{48DBB124-7471-48D3-A008-B8834E2DBA2C}"/>
-    <hyperlink ref="B2" r:id="rId27" xr:uid="{1A946654-D61E-44EB-8652-B09471C93757}"/>
-    <hyperlink ref="B3" r:id="rId28" xr:uid="{14FCD513-BC0D-4605-B287-17D9F21AF1DD}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{7B3979BF-E123-4A75-9A8A-4027C76E15B3}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{E13AB687-BA0A-46FA-9A62-D8C9A946A27D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{60DB8409-D508-4102-BE27-F26A9A5C3AA5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{DE1DDCA1-E5B8-4965-BECF-FB3F0F001393}"/>
+    <hyperlink ref="C26" r:id="rId5" location="attr=14030" xr:uid="{043B254C-E342-4457-8A46-66307171023F}"/>
+    <hyperlink ref="C27" r:id="rId6" location="attr=14032" xr:uid="{B804B7CE-6302-4722-B9D2-5011CC75013B}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{924F9270-3FAB-4C81-9A58-4A58A5E19FD1}"/>
+    <hyperlink ref="C34" r:id="rId8" location="attr=" xr:uid="{8722C4E8-5636-46F7-980F-682639B96655}"/>
+    <hyperlink ref="C36" r:id="rId9" xr:uid="{860306F7-7E9A-4D04-B556-367EF4249E7F}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{1A946654-D61E-44EB-8652-B09471C93757}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{C49B2F74-11DB-4328-AB2D-CFC3243EA3D8}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{4009A8AF-F557-4F90-96FA-078CF022C521}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{1BD8B131-E9D3-4C93-9F21-EF5637D7AAC8}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{38623107-CE80-4FAF-AE38-858842D9367F}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{D3490CE2-EDCF-4F12-ABDD-EE823C72084C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>